--- a/src/main/resources/testdata/APITest_Data.xlsx
+++ b/src/main/resources/testdata/APITest_Data.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11960"/>
+    <workbookView windowWidth="28000" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="case_info" sheetId="2" r:id="rId2"/>
+    <sheet name="apiInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>api_url</t>
   </si>
@@ -53,6 +55,84 @@
   </si>
   <si>
     <t>注册成功</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>api_id</t>
+  </si>
+  <si>
+    <t>request_params</t>
+  </si>
+  <si>
+    <t>expect_response_data</t>
+  </si>
+  <si>
+    <t>actual_response_data</t>
+  </si>
+  <si>
+    <t>is_excute</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13200000001","pwd":"123456","regname":"test1"}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1320aaa00001","pwd":"123456","regname":"test2"}</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13200000001","pwd":"1236","regname":"test3"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13100000001","pwd":"123456","regname":"test1"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13100000001","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13100000001"}</t>
+  </si>
+  <si>
+    <t>账户已存在</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>http://admin.huanhuan.org/auto/user/login</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://admin.huanhuan.org/auto/user/find</t>
   </si>
 </sst>
 </file>
@@ -74,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="方正姚体"/>
@@ -151,14 +239,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="方正姚体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,94 +603,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,28 +702,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,27 +732,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1107,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.11111111111111" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1127,4 +1210,237 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.32638888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.0902777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="2"/>
+    <hyperlink ref="B7" r:id="rId2" display="3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="70.0208333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://admin.huanhuan.org/auto/user/login"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://admin.huanhuan.org/auto/user/find"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/testdata/APITest_Data.xlsx
+++ b/src/main/resources/testdata/APITest_Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="case_info" sheetId="2" r:id="rId2"/>
     <sheet name="apiInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="sql" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>api_url</t>
   </si>
@@ -75,6 +76,12 @@
     <t>is_excute</t>
   </si>
   <si>
+    <t>beforeSql</t>
+  </si>
+  <si>
+    <t>afterSql</t>
+  </si>
+  <si>
     <t>{"mobilephone":"13200000001","pwd":"123456","regname":"test1"}</t>
   </si>
   <si>
@@ -133,6 +140,45 @@
   </si>
   <si>
     <t>http://admin.huanhuan.org/auto/user/find</t>
+  </si>
+  <si>
+    <t>caseId</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>expectedResult</t>
+  </si>
+  <si>
+    <t>actualResult</t>
+  </si>
+  <si>
+    <t>testResult</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT*FROM api_classification WHERE project_id=1; </t>
+  </si>
+  <si>
+    <t>[{"status":"200","message":"pass"}]</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>[{"status":"200","message":"pass"},{"key":"value"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT*FROM api_request_param WHERE api_id=2; </t>
+  </si>
+  <si>
+    <t>SELECT*FROM suite WHERE project_id=12;</t>
+  </si>
+  <si>
+    <t>select * from test_rule where case_id=25;</t>
   </si>
 </sst>
 </file>
@@ -141,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,7 +209,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="方正姚体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,45 +284,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="方正姚体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,37 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,11 +337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,19 +353,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +449,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,67 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,18 +527,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,48 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,8 +550,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,15 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +627,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -598,129 +635,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,28 +775,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1113,96 +1162,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.11111111111111" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="56.0138888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.4861111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33333333333333" style="1"/>
-    <col min="4" max="4" width="8.79166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5138888888889" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="7.11111111111111" style="1"/>
+    <col min="1" max="1" width="56.0138888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.4861111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.33333333333333" style="2"/>
+    <col min="4" max="4" width="8.79166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5138888888889" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="7.11111111111111" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>13100000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>111111</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>111111</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>13100000001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>13500000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>111111</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1215,142 +1264,148 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.32638888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.0902777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1666666666667" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="5.32638888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.0902777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1666666666667" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1369,70 +1424,70 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="70.0208333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="70.0208333333333" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1443,4 +1498,187 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="58.5625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.2361111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.0208333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/testdata/APITest_Data.xlsx
+++ b/src/main/resources/testdata/APITest_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11320" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="11320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -82,31 +82,28 @@
     <t>afterSql</t>
   </si>
   <si>
-    <t>{"mobilephone":"13200000001","pwd":"123456","regname":"test1"}</t>
+    <t>{"mobilephone":"{mobilephone}","pwd":"{pwd}","regname":"test1"}</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>{"mobilephone":"1320aaa00001","pwd":"123456","regname":"test2"}</t>
+    <t>{"mobilephone":"1320aaa00001","pwd":"{pwd}","regname":"test2"}</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>{"mobilephone":"13200000001","pwd":"1236","regname":"test3"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13100000001","pwd":"123456","regname":"test1"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13100000001","pwd":"123456"}</t>
+    <t>{"mobilephone":"{mobilephone}","pwd":"1236","regname":"test3"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"{mobilephone}","pwd":"{pwd}"}</t>
   </si>
   <si>
     <t>登录成功</t>
   </si>
   <si>
-    <t>{"mobilephone":"13100000001"}</t>
+    <t>{"mobilephone":"{mobilephone}"}</t>
   </si>
   <si>
     <t>账户已存在</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>testResult</t>
+  </si>
+  <si>
+    <t>sqlCheckResult</t>
   </si>
   <si>
     <t>after</t>
@@ -186,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -209,7 +209,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="方正姚体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,43 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -268,52 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -321,28 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +353,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,151 +443,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,32 +550,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +597,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,17 +638,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -649,124 +649,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,22 +775,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1382,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
@@ -1399,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
@@ -1439,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1453,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1467,13 +1467,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1503,41 +1503,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="58.5625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.2361111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.0208333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="15.7430555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
+    <row r="1" ht="18" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/src/main/resources/testdata/APITest_Data.xlsx
+++ b/src/main/resources/testdata/APITest_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11320" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>api_url</t>
   </si>
@@ -76,10 +76,22 @@
     <t>is_excute</t>
   </si>
   <si>
-    <t>beforeSql</t>
-  </si>
-  <si>
-    <t>afterSql</t>
+    <t>testResult</t>
+  </si>
+  <si>
+    <t>sqlCheckResult</t>
+  </si>
+  <si>
+    <t>reqHeader</t>
+  </si>
+  <si>
+    <t>respHeader</t>
+  </si>
+  <si>
+    <t>extractRespData</t>
+  </si>
+  <si>
+    <t>assertKeyInfo</t>
   </si>
   <si>
     <t>{"mobilephone":"{mobilephone}","pwd":"{pwd}","regname":"test1"}</t>
@@ -88,27 +100,54 @@
     <t>Y</t>
   </si>
   <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号已被注册"}]</t>
+  </si>
+  <si>
     <t>{"mobilephone":"1320aaa00001","pwd":"{pwd}","regname":"test2"}</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号格式不正确"}]</t>
+  </si>
+  <si>
     <t>{"mobilephone":"{mobilephone}","pwd":"1236","regname":"test3"}</t>
   </si>
   <si>
+    <t>[{"headerName":"set-Cookie","headerValue":"cookie"}]</t>
+  </si>
+  <si>
+    <t>[{"parameterName":"userId","jsonPath":"$.data.id"},{"parameterName":"leaveAmount","jsonPath":"$.data.leaveamount"}]</t>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"注册成功"},{"jsonPath":"$.code","expectedValue":"200"}]</t>
+  </si>
+  <si>
     <t>{"mobilephone":"{mobilephone}","pwd":"{pwd}"}</t>
   </si>
   <si>
     <t>登录成功</t>
   </si>
   <si>
+    <t>[{"headerName":"set-Cookie","headerValue":"cookie"},{"headerName":"example","headerValue":"exampleVa"}]</t>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"登录成功"},{"jsonPath":"$.code","expectedValue":"200"}]</t>
+  </si>
+  <si>
     <t>{"mobilephone":"{mobilephone}"}</t>
   </si>
   <si>
     <t>账户已存在</t>
   </si>
   <si>
+    <t>[{"headerName":"cookie","headerValue":"cookie"}]</t>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"账号已存在"}]</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -149,12 +188,6 @@
   </si>
   <si>
     <t>actualResult</t>
-  </si>
-  <si>
-    <t>testResult</t>
-  </si>
-  <si>
-    <t>sqlCheckResult</t>
   </si>
   <si>
     <t>after</t>
@@ -186,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -209,6 +242,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="方正姚体"/>
       <charset val="0"/>
@@ -230,6 +278,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="方正姚体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,46 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="方正姚体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,51 +352,6 @@
       <color rgb="FF9C0006"/>
       <name val="方正姚体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="方正姚体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="方正姚体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +362,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="方正姚体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,25 +386,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,157 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +583,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +609,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,9 +654,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,138 +677,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,26 +808,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1264,148 +1300,195 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.32638888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.0902777777778" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.1666666666667" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="5.32638888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.0902777777778" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1666666666667" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.88888888888889" style="4"/>
+    <col min="8" max="8" width="14.8125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.6388888888889" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.9583333333333" style="4" customWidth="1"/>
+    <col min="11" max="12" width="17.7013888888889" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="53" spans="1:12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="1:12">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="53" spans="1:12">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="106" spans="1:12">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="106" spans="1:12">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:12">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1507,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1439,13 +1522,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1453,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1467,13 +1550,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1481,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1503,13 +1586,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="58.5625" style="1" customWidth="1"/>
@@ -1520,30 +1603,27 @@
     <col min="9" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:8">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:5">
@@ -1554,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="53" spans="1:5">
@@ -1571,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:5">
@@ -1588,13 +1668,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:5">
@@ -1605,13 +1685,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
@@ -1622,13 +1702,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:5">
@@ -1639,13 +1719,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:5">
@@ -1656,13 +1736,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:5">
@@ -1673,13 +1753,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
